--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -591,102 +591,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Английский язык (Орлов)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Математика (Иванов)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Физика (Иванов)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Физика (Иванов)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Русский язык (Семенова)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Русский язык (Петрова)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Английский язык (Соколова)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Английский язык (Орлов)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Физика (Иванов)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Физика (Иванов)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Русский язык (Петрова)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Математика (Андреева)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Информатика (Андреева)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Информатика (Иванов)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Информатика (Андреева)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Математика (Андреева)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Русский язык (Петрова)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Английский язык (Орлов)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Математика (Иванов)</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>География (Козлова)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>История (Сидоров)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Биология (Смирнов)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>Литература (Петрова)</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Обществознание (Сидоров)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>История (Михайлова)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>География (Козлова)</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Биология (Смирнов)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>История (Михайлова)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Биология (Смирнов)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>География (Козлова)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>История (Сидоров)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Обществознание (Сидоров)</t>
         </is>
       </c>
     </row>
@@ -698,102 +698,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Русский язык (Петрова)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Математика (Левицкий)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Литература (Соколова)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Русский язык (Семенова)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Математика (Белозерова)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Английский язык (Орлов)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Русский язык (Петрова)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Русский язык (Семенова)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Математика (Левицкий)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Английский язык (Орлов)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Литература (Петрова)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Русский язык (Петрова)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>История (Михайлова)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Математика (Белозерова)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Английский язык (Соколова)</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Английский язык (Орлов)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>История (Сидоров)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Математика (Белозерова)</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>Информатика (Иванов)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Химия (Смирнов)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Экономика (Козлова)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Химия (Смирнов)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Информатика (Андреева)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>Обществознание (Сидоров)</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>География (Михайлова)</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>География (Михайлова)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Информатика (Иванов)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Экономика (Козлова)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Химия (Смирнов)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Информатика (Андреева)</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Химия (Смирнов)</t>
+          <t>География (Козлова)</t>
         </is>
       </c>
     </row>
@@ -805,64 +805,64 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Английский язык (Белозерова)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Английский язык (Орлов)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Русский язык (Белозерова)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Математика (Левицкий)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Математика (Андреева)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>История (Михайлова)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Русский язык (Белозерова)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Английский язык (Белозерова)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>История (Сидоров)</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Английский язык (Орлов)</t>
+          <t>Русский язык (Семенова)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Русский язык (Семенова)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Русский язык (Семенова)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Математика (Иванов)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Литература (Петрова)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>Английский язык (Соколова)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Математика (Иванов)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Русский язык (Семенова)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Русский язык (Семенова)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Английский язык (Петрова)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Математика (Левицкий)</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>Биология (Смирнов)</t>
@@ -875,32 +875,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>Физика (Иванов)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Экономика (Козлова)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>География (Михайлова)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Биология (Смирнов)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>Литература (Соколова)</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Биология (Смирнов)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>География (Михайлова)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>География (Михайлова)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Физика (Иванов)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Экономика (Козлова)</t>
         </is>
       </c>
     </row>
